--- a/Dissertation 2023 - Bachelor Degree/MOS - Tweets 2022/Middle of Season - Sentiment Scores.xlsx
+++ b/Dissertation 2023 - Bachelor Degree/MOS - Tweets 2022/Middle of Season - Sentiment Scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e55a912db83fd400/Desktop/DissertationRepository2023/Dissertation 2023 - Bachelor Degree/MOS - Tweets 2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="788" documentId="8_{E329CF83-5CFE-4679-8A4D-A73D8C8442A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE982170-07D5-44F1-A2E5-EE8402ADDFDE}"/>
+  <xr:revisionPtr revIDLastSave="792" documentId="8_{E329CF83-5CFE-4679-8A4D-A73D8C8442A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48A54C5C-A975-45AA-AD35-43112A524363}"/>
   <bookViews>
-    <workbookView xWindow="63195" yWindow="-1965" windowWidth="17250" windowHeight="21150" xr2:uid="{81D104BD-F9FD-42F5-8953-D5AA58B4B1DA}"/>
+    <workbookView xWindow="80280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81D104BD-F9FD-42F5-8953-D5AA58B4B1DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9007BA62-1C37-409D-840D-DDEE5771D92B}">
   <dimension ref="A1:AB397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1039,7 +1039,7 @@
       <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="44">
         <f>B6/(B6+B8)</f>
         <v>0.47241379310344828</v>
       </c>
@@ -1097,7 +1097,7 @@
       <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="39">
         <f>1-D6</f>
         <v>0.52758620689655178</v>
       </c>
@@ -1155,6 +1155,7 @@
       <c r="C8" t="s">
         <v>4</v>
       </c>
+      <c r="D8" s="39"/>
       <c r="F8" s="6">
         <v>44512</v>
       </c>
@@ -1203,6 +1204,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
+      <c r="D9" s="39"/>
       <c r="F9" s="6">
         <v>44420</v>
       </c>
@@ -1259,7 +1261,7 @@
       <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="39">
         <f>B10/(B10+B12)</f>
         <v>0.68170103092783507</v>
       </c>
@@ -1317,7 +1319,7 @@
       <c r="C11" t="s">
         <v>3</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="39">
         <f>1-D10</f>
         <v>0.31829896907216493</v>
       </c>
@@ -1375,6 +1377,7 @@
       <c r="C12" t="s">
         <v>4</v>
       </c>
+      <c r="D12" s="39"/>
       <c r="F12" s="6">
         <v>44512</v>
       </c>
@@ -1423,6 +1426,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
+      <c r="D13" s="39"/>
       <c r="X13" s="7"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
@@ -1435,7 +1439,7 @@
       <c r="C14" t="s">
         <v>1</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="39">
         <f>B14/(B16+B14)</f>
         <v>0.40274599542334094</v>
       </c>
@@ -1449,7 +1453,7 @@
       <c r="C15" t="s">
         <v>3</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="39">
         <f>1-D14</f>
         <v>0.597254004576659</v>
       </c>
@@ -1463,10 +1467,12 @@
       <c r="C16" t="s">
         <v>4</v>
       </c>
+      <c r="D16" s="39"/>
       <c r="X16" s="7"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
+      <c r="D17" s="39"/>
       <c r="X17" s="7"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
@@ -1479,7 +1485,7 @@
       <c r="C18" t="s">
         <v>1</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="39">
         <f>B18/(B18+B20)</f>
         <v>0.48608137044967881</v>
       </c>
@@ -1493,7 +1499,7 @@
       <c r="C19" t="s">
         <v>3</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="39">
         <f>1-D18</f>
         <v>0.51391862955032119</v>
       </c>
@@ -1507,10 +1513,12 @@
       <c r="C20" t="s">
         <v>4</v>
       </c>
+      <c r="D20" s="39"/>
       <c r="X20" s="7"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
+      <c r="D21" s="39"/>
       <c r="X21" s="7"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
@@ -1523,7 +1531,7 @@
       <c r="C22" t="s">
         <v>1</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="39">
         <f>B22/(B22+B24)</f>
         <v>0.31275720164609055</v>
       </c>
@@ -1537,6 +1545,7 @@
       <c r="C23" t="s">
         <v>3</v>
       </c>
+      <c r="D23" s="39"/>
       <c r="X23" s="7"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
@@ -1547,13 +1556,17 @@
       <c r="C24" t="s">
         <v>4</v>
       </c>
+      <c r="D24" s="39">
+        <f>1-D22</f>
+        <v>0.68724279835390945</v>
+      </c>
       <c r="X24" s="7"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -1575,7 +1588,9 @@
       <c r="W25" s="11"/>
       <c r="X25" s="12"/>
     </row>
-    <row r="26" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D26" s="39"/>
+    </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>5</v>
@@ -1584,7 +1599,7 @@
         <v>1.5</v>
       </c>
       <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="16"/>
       <c r="F27" s="17">
         <v>44532</v>
@@ -1776,6 +1791,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
+      <c r="D31" s="39"/>
       <c r="F31" s="6">
         <v>44532</v>
       </c>
@@ -1823,7 +1839,7 @@
       <c r="C32" t="s">
         <v>1</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="39">
         <f>B32/(B32+B34)</f>
         <v>0.20396600566572237</v>
       </c>
@@ -1872,6 +1888,7 @@
       <c r="C33" t="s">
         <v>3</v>
       </c>
+      <c r="D33" s="39"/>
       <c r="F33" s="6">
         <v>44534</v>
       </c>
@@ -1917,6 +1934,7 @@
       <c r="C34" t="s">
         <v>4</v>
       </c>
+      <c r="D34" s="39"/>
       <c r="F34" s="6">
         <v>44535</v>
       </c>
@@ -1956,6 +1974,7 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="19"/>
+      <c r="D35" s="39"/>
       <c r="F35" s="6">
         <v>44532</v>
       </c>
@@ -2003,7 +2022,7 @@
       <c r="C36" t="s">
         <v>1</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="39">
         <f>B36/(B36+B38)</f>
         <v>0.23853211009174313</v>
       </c>
@@ -2052,7 +2071,7 @@
       <c r="C37" t="s">
         <v>3</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="39">
         <f>1-D36</f>
         <v>0.76146788990825687</v>
       </c>
@@ -2101,6 +2120,7 @@
       <c r="C38" t="s">
         <v>4</v>
       </c>
+      <c r="D38" s="39"/>
       <c r="F38" s="6">
         <v>44535</v>
       </c>
@@ -2140,6 +2160,7 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="19"/>
+      <c r="D39" s="39"/>
       <c r="T39" s="20"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
@@ -2152,7 +2173,7 @@
       <c r="C40" t="s">
         <v>1</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="39">
         <f>B40/(B40+B42)</f>
         <v>0.39854014598540144</v>
       </c>
@@ -2166,6 +2187,7 @@
       <c r="C41" t="s">
         <v>3</v>
       </c>
+      <c r="D41" s="39"/>
       <c r="T41" s="20"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
@@ -2176,10 +2198,12 @@
       <c r="C42" t="s">
         <v>4</v>
       </c>
+      <c r="D42" s="39"/>
       <c r="T42" s="20"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="19"/>
+      <c r="D43" s="39"/>
       <c r="T43" s="20"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
@@ -2192,7 +2216,7 @@
       <c r="C44" t="s">
         <v>1</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="39">
         <f>B44/(B44+B46)</f>
         <v>0.33734939759036142</v>
       </c>
@@ -2206,7 +2230,7 @@
       <c r="C45" t="s">
         <v>3</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="39">
         <f>1-D44</f>
         <v>0.66265060240963858</v>
       </c>
@@ -2220,7 +2244,7 @@
       <c r="C46" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="24"/>
+      <c r="D46" s="42"/>
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
       <c r="G46" s="24"/>
@@ -2238,7 +2262,9 @@
       <c r="S46" s="24"/>
       <c r="T46" s="25"/>
     </row>
-    <row r="47" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D47" s="39"/>
+    </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>6</v>
@@ -2247,7 +2273,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
+      <c r="D48" s="43"/>
       <c r="E48" s="16"/>
       <c r="F48" s="17">
         <v>44537</v>
@@ -2299,7 +2325,7 @@
       <c r="C49" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="38">
+      <c r="D49" s="44">
         <f>B49/(B49+B51)</f>
         <v>0.41824249165739713</v>
       </c>
@@ -2349,6 +2375,7 @@
       <c r="C50" t="s">
         <v>3</v>
       </c>
+      <c r="D50" s="39"/>
       <c r="F50" s="6">
         <v>44539</v>
       </c>
@@ -2394,7 +2421,7 @@
       <c r="C51" t="s">
         <v>4</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="39">
         <f>B51/(B49+B51)</f>
         <v>0.58175750834260287</v>
       </c>
@@ -2437,6 +2464,7 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="19"/>
+      <c r="D52" s="39"/>
       <c r="F52" s="6">
         <v>44537</v>
       </c>
@@ -2484,7 +2512,7 @@
       <c r="C53" t="s">
         <v>4</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="39">
         <f>B53/(B53+B55)</f>
         <v>0.58823529411764708</v>
       </c>
@@ -2533,6 +2561,7 @@
       <c r="C54" t="s">
         <v>3</v>
       </c>
+      <c r="D54" s="39"/>
       <c r="F54" s="6">
         <v>44539</v>
       </c>
@@ -2578,6 +2607,10 @@
       <c r="C55" t="s">
         <v>1</v>
       </c>
+      <c r="D55" s="39">
+        <f>1-D53</f>
+        <v>0.41176470588235292</v>
+      </c>
       <c r="F55" s="6">
         <v>44540</v>
       </c>
@@ -2617,6 +2650,7 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="19"/>
+      <c r="D56" s="39"/>
       <c r="F56" s="6">
         <v>44537</v>
       </c>
@@ -2664,7 +2698,7 @@
       <c r="C57" t="s">
         <v>4</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="39">
         <f>B57/(B57+B59)</f>
         <v>0.54666666666666663</v>
       </c>
@@ -2713,7 +2747,7 @@
       <c r="C58" t="s">
         <v>3</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="39">
         <f>1-D57</f>
         <v>0.45333333333333337</v>
       </c>
@@ -2762,6 +2796,7 @@
       <c r="C59" t="s">
         <v>1</v>
       </c>
+      <c r="D59" s="39"/>
       <c r="F59" s="6">
         <v>44540</v>
       </c>
@@ -2801,6 +2836,7 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="19"/>
+      <c r="D60" s="39"/>
       <c r="T60" s="20"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
@@ -2813,7 +2849,7 @@
       <c r="C61" t="s">
         <v>4</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="39">
         <f>B61/(B61+B63)</f>
         <v>0.48979591836734693</v>
       </c>
@@ -2827,6 +2863,7 @@
       <c r="C62" t="s">
         <v>3</v>
       </c>
+      <c r="D62" s="39"/>
       <c r="T62" s="20"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
@@ -2837,10 +2874,12 @@
       <c r="C63" t="s">
         <v>1</v>
       </c>
+      <c r="D63" s="39"/>
       <c r="T63" s="20"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="19"/>
+      <c r="D64" s="39"/>
       <c r="T64" s="20"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
@@ -2853,7 +2892,7 @@
       <c r="C65" t="s">
         <v>4</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="39">
         <f>B65/(B65+B67)</f>
         <v>0.51219512195121952</v>
       </c>
@@ -2867,7 +2906,7 @@
       <c r="C66" t="s">
         <v>3</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="39">
         <f>1-D65</f>
         <v>0.48780487804878048</v>
       </c>
@@ -2881,7 +2920,7 @@
       <c r="C67" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D67" s="24"/>
+      <c r="D67" s="42"/>
       <c r="E67" s="24"/>
       <c r="F67" s="24"/>
       <c r="G67" s="24"/>
@@ -2899,7 +2938,9 @@
       <c r="S67" s="24"/>
       <c r="T67" s="25"/>
     </row>
-    <row r="68" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="68" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D68" s="39"/>
+    </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
         <v>7</v>
@@ -2908,7 +2949,7 @@
         <v>1.25</v>
       </c>
       <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
+      <c r="D69" s="43"/>
       <c r="E69" s="16"/>
       <c r="F69" s="17">
         <v>44553</v>
@@ -2960,7 +3001,7 @@
       <c r="C70" t="s">
         <v>1</v>
       </c>
-      <c r="D70" s="38">
+      <c r="D70" s="44">
         <f>B70/(B70+B72)</f>
         <v>0.46012606193477668</v>
       </c>
@@ -3010,6 +3051,7 @@
       <c r="C71" t="s">
         <v>3</v>
       </c>
+      <c r="D71" s="39"/>
       <c r="F71" s="6">
         <v>44555</v>
       </c>
@@ -3055,7 +3097,7 @@
       <c r="C72" t="s">
         <v>4</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="39">
         <f>B72/(B70+B72)</f>
         <v>0.53987393806522332</v>
       </c>
@@ -3098,6 +3140,7 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="19"/>
+      <c r="D73" s="39"/>
       <c r="F73" s="6">
         <v>44553</v>
       </c>
@@ -3145,7 +3188,7 @@
       <c r="C74" t="s">
         <v>4</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="39">
         <f>B74/(B74+B76)</f>
         <v>0.6402439024390244</v>
       </c>
@@ -3194,7 +3237,7 @@
       <c r="C75" t="s">
         <v>3</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="39">
         <f>1-D74</f>
         <v>0.3597560975609756</v>
       </c>
@@ -3243,6 +3286,7 @@
       <c r="C76" t="s">
         <v>1</v>
       </c>
+      <c r="D76" s="39"/>
       <c r="F76" s="6">
         <v>44556</v>
       </c>
@@ -3282,6 +3326,7 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="19"/>
+      <c r="D77" s="39"/>
       <c r="F77" s="6">
         <v>44553</v>
       </c>
@@ -3329,7 +3374,7 @@
       <c r="C78" t="s">
         <v>4</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="39">
         <f>B78/(B78+B80)</f>
         <v>0.54450261780104714</v>
       </c>
@@ -3370,7 +3415,7 @@
       <c r="C79" t="s">
         <v>3</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="39">
         <f>1-D78</f>
         <v>0.45549738219895286</v>
       </c>
@@ -3411,6 +3456,7 @@
       <c r="C80" t="s">
         <v>1</v>
       </c>
+      <c r="D80" s="39"/>
       <c r="F80" s="6">
         <v>44556</v>
       </c>
@@ -3442,6 +3488,7 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" s="19"/>
+      <c r="D81" s="39"/>
       <c r="T81" s="20"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
@@ -3454,7 +3501,7 @@
       <c r="C82" t="s">
         <v>4</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="39">
         <f>B82/(B82+B84)</f>
         <v>0.5304347826086957</v>
       </c>
@@ -3468,7 +3515,7 @@
       <c r="C83" t="s">
         <v>8</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="39">
         <f>1-D82</f>
         <v>0.4695652173913043</v>
       </c>
@@ -3482,10 +3529,12 @@
       <c r="C84" t="s">
         <v>1</v>
       </c>
+      <c r="D84" s="39"/>
       <c r="T84" s="20"/>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="19"/>
+      <c r="D85" s="39"/>
       <c r="T85" s="20"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
@@ -3498,7 +3547,7 @@
       <c r="C86" t="s">
         <v>4</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="39">
         <f>B86/(B86+B88)</f>
         <v>0.64814814814814814</v>
       </c>
@@ -3512,7 +3561,7 @@
       <c r="C87" t="s">
         <v>3</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="39">
         <f>1-D86</f>
         <v>0.35185185185185186</v>
       </c>
@@ -3526,7 +3575,7 @@
       <c r="C88" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D88" s="24"/>
+      <c r="D88" s="42"/>
       <c r="E88" s="24"/>
       <c r="F88" s="24"/>
       <c r="G88" s="24"/>
@@ -3544,7 +3593,9 @@
       <c r="S88" s="24"/>
       <c r="T88" s="25"/>
     </row>
-    <row r="89" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="89" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D89" s="39"/>
+    </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
         <v>9</v>
@@ -3553,7 +3604,7 @@
         <v>0.33</v>
       </c>
       <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
+      <c r="D90" s="43"/>
       <c r="E90" s="16"/>
       <c r="F90" s="17">
         <v>44540</v>
@@ -3592,7 +3643,7 @@
       <c r="B91" t="s">
         <v>1</v>
       </c>
-      <c r="D91" s="38">
+      <c r="D91" s="44">
         <f>A91/(A91+A93)</f>
         <v>0.51523545706371188</v>
       </c>
@@ -3632,7 +3683,7 @@
       <c r="B92" t="s">
         <v>3</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="39">
         <f>1-D91</f>
         <v>0.48476454293628812</v>
       </c>
@@ -3671,6 +3722,7 @@
       <c r="B93" t="s">
         <v>4</v>
       </c>
+      <c r="D93" s="39"/>
       <c r="F93" s="6">
         <v>44540</v>
       </c>
@@ -3701,6 +3753,7 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="19"/>
+      <c r="D94" s="39"/>
       <c r="F94" s="6">
         <v>44541</v>
       </c>
@@ -3739,7 +3792,7 @@
       <c r="C95" t="s">
         <v>4</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="39">
         <f>B95/(B95+B97)</f>
         <v>0.4838709677419355</v>
       </c>
@@ -3779,7 +3832,7 @@
       <c r="C96" t="s">
         <v>3</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="39">
         <f>1-D95</f>
         <v>0.5161290322580645</v>
       </c>
@@ -3819,6 +3872,7 @@
       <c r="C97" t="s">
         <v>1</v>
       </c>
+      <c r="D97" s="39"/>
       <c r="F97" s="6">
         <v>44541</v>
       </c>
@@ -3849,6 +3903,7 @@
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A98" s="19"/>
+      <c r="D98" s="39"/>
       <c r="F98" s="6">
         <v>44542</v>
       </c>
@@ -3887,7 +3942,7 @@
       <c r="C99" t="s">
         <v>4</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="39">
         <f>B99/(B99+B101)</f>
         <v>0.5</v>
       </c>
@@ -3901,7 +3956,7 @@
       <c r="C100" t="s">
         <v>3</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="39">
         <v>0.5</v>
       </c>
       <c r="P100" s="20"/>
@@ -3914,10 +3969,12 @@
       <c r="C101" t="s">
         <v>1</v>
       </c>
+      <c r="D101" s="39"/>
       <c r="P101" s="20"/>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A102" s="19"/>
+      <c r="D102" s="39"/>
       <c r="P102" s="20"/>
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.3">
@@ -3930,7 +3987,7 @@
       <c r="C103" t="s">
         <v>4</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="39">
         <f>B103/(B103+B104)</f>
         <v>0.42424242424242425</v>
       </c>
@@ -3944,7 +4001,7 @@
       <c r="C104" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="39">
         <f>1-D103</f>
         <v>0.57575757575757569</v>
       </c>
@@ -3961,6 +4018,9 @@
       <c r="O104" s="24"/>
       <c r="P104" s="25"/>
     </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D105" s="39"/>
+    </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>10</v>
@@ -3969,7 +4029,7 @@
         <v>1.5</v>
       </c>
       <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
+      <c r="D106" s="41"/>
       <c r="E106" s="2"/>
       <c r="F106" s="3">
         <v>44539</v>
@@ -4038,7 +4098,7 @@
       <c r="B107" t="s">
         <v>1</v>
       </c>
-      <c r="D107" s="38">
+      <c r="D107" s="44">
         <f>A107/(A107+A109)</f>
         <v>0.53640929064657883</v>
       </c>
@@ -4105,7 +4165,7 @@
       <c r="B108" t="s">
         <v>3</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="39">
         <f>1-D107</f>
         <v>0.46359070935342117</v>
       </c>
@@ -4171,6 +4231,7 @@
       <c r="B109" t="s">
         <v>4</v>
       </c>
+      <c r="D109" s="39"/>
       <c r="F109" s="6">
         <v>44539</v>
       </c>
@@ -4236,7 +4297,7 @@
       <c r="C110" t="s">
         <v>4</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="39">
         <f>B110/(B110+B111)</f>
         <v>0.49892473118279568</v>
       </c>
@@ -4303,6 +4364,7 @@
       <c r="C111" t="s">
         <v>1</v>
       </c>
+      <c r="D111" s="39"/>
       <c r="F111" s="6">
         <v>44541</v>
       </c>
@@ -4360,6 +4422,7 @@
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
+      <c r="D112" s="39"/>
       <c r="F112" s="6">
         <v>44539</v>
       </c>
@@ -4425,7 +4488,7 @@
       <c r="C113" t="s">
         <v>4</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="39">
         <f>B113/(B113+B114)</f>
         <v>0.54320987654320985</v>
       </c>
@@ -4492,7 +4555,7 @@
       <c r="C114" t="s">
         <v>1</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="39">
         <f>1-D113</f>
         <v>0.45679012345679015</v>
       </c>
@@ -4553,6 +4616,7 @@
     </row>
     <row r="115" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
+      <c r="D115" s="39"/>
       <c r="AB115" s="7"/>
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.3">
@@ -4565,7 +4629,7 @@
       <c r="C116" t="s">
         <v>4</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="39">
         <f>B116/(B116+B117)</f>
         <v>0.57654723127035834</v>
       </c>
@@ -4579,7 +4643,7 @@
       <c r="C117" t="s">
         <v>1</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="39">
         <f>1-D116</f>
         <v>0.42345276872964166</v>
       </c>
@@ -4587,6 +4651,7 @@
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A118" s="5"/>
+      <c r="D118" s="39"/>
       <c r="AB118" s="7"/>
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.3">
@@ -4599,7 +4664,7 @@
       <c r="C119" t="s">
         <v>4</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="39">
         <f>B119/(B119+B120)</f>
         <v>0.50171821305841924</v>
       </c>
@@ -4613,10 +4678,12 @@
       <c r="C120" t="s">
         <v>1</v>
       </c>
+      <c r="D120" s="39"/>
       <c r="AB120" s="7"/>
     </row>
     <row r="121" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
+      <c r="D121" s="39"/>
       <c r="AB121" s="7"/>
     </row>
     <row r="122" spans="1:28" x14ac:dyDescent="0.3">
@@ -4629,7 +4696,7 @@
       <c r="C122" t="s">
         <v>4</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="39">
         <f>B122/(B122+B123)</f>
         <v>0.36832061068702288</v>
       </c>
@@ -4643,7 +4710,7 @@
       <c r="C123" t="s">
         <v>1</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="39">
         <f>1-D122</f>
         <v>0.63167938931297707</v>
       </c>
@@ -4651,6 +4718,7 @@
     </row>
     <row r="124" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
+      <c r="D124" s="39"/>
       <c r="AB124" s="7"/>
     </row>
     <row r="125" spans="1:28" x14ac:dyDescent="0.3">
@@ -4663,7 +4731,7 @@
       <c r="C125" t="s">
         <v>4</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="39">
         <f>B125/(B125+B126)</f>
         <v>0.62356321839080464</v>
       </c>
@@ -4677,7 +4745,7 @@
       <c r="C126" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D126" s="11"/>
+      <c r="D126" s="40"/>
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
       <c r="G126" s="11"/>
@@ -4703,6 +4771,9 @@
       <c r="AA126" s="11"/>
       <c r="AB126" s="12"/>
     </row>
+    <row r="127" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="D127" s="39"/>
+    </row>
     <row r="128" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>12</v>
@@ -4711,7 +4782,7 @@
         <v>1.4</v>
       </c>
       <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
+      <c r="D128" s="41"/>
       <c r="E128" s="2"/>
       <c r="F128" s="3">
         <v>44540</v>
@@ -4770,7 +4841,7 @@
       <c r="B129" t="s">
         <v>1</v>
       </c>
-      <c r="D129" s="38">
+      <c r="D129" s="44">
         <f>A129/(A129+A131)</f>
         <v>0.39713501981103322</v>
       </c>
@@ -4828,7 +4899,7 @@
       <c r="B130" t="s">
         <v>3</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="39">
         <f>1-D129</f>
         <v>0.60286498018896673</v>
       </c>
@@ -4885,6 +4956,7 @@
       <c r="B131" t="s">
         <v>4</v>
       </c>
+      <c r="D131" s="39"/>
       <c r="F131" s="6">
         <v>44540</v>
       </c>
@@ -4933,6 +5005,7 @@
     </row>
     <row r="132" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
+      <c r="D132" s="39"/>
       <c r="F132" s="6">
         <v>44541</v>
       </c>
@@ -4989,7 +5062,7 @@
       <c r="C133" t="s">
         <v>4</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="39">
         <f>B133/(B133+B134)</f>
         <v>0.68666666666666665</v>
       </c>
@@ -5047,7 +5120,7 @@
       <c r="C134" t="s">
         <v>1</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="39">
         <f>1-D133</f>
         <v>0.31333333333333335</v>
       </c>
@@ -5099,6 +5172,7 @@
     </row>
     <row r="135" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
+      <c r="D135" s="39"/>
       <c r="F135" s="6">
         <v>44541</v>
       </c>
@@ -5155,7 +5229,7 @@
       <c r="C136" t="s">
         <v>4</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="39">
         <f>B136/(B136+B137)</f>
         <v>0.6741573033707865</v>
       </c>
@@ -5213,7 +5287,7 @@
       <c r="C137" t="s">
         <v>1</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="39">
         <f>1-D136</f>
         <v>0.3258426966292135</v>
       </c>
@@ -5221,6 +5295,7 @@
     </row>
     <row r="138" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
+      <c r="D138" s="39"/>
       <c r="X138" s="7"/>
     </row>
     <row r="139" spans="1:24" x14ac:dyDescent="0.3">
@@ -5233,7 +5308,7 @@
       <c r="C139" t="s">
         <v>4</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="39">
         <f>B139/(B139+B140)</f>
         <v>0.52358490566037741</v>
       </c>
@@ -5247,7 +5322,7 @@
       <c r="C140" t="s">
         <v>1</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="39">
         <f>1-D139</f>
         <v>0.47641509433962259</v>
       </c>
@@ -5255,6 +5330,7 @@
     </row>
     <row r="141" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
+      <c r="D141" s="39"/>
       <c r="X141" s="7"/>
     </row>
     <row r="142" spans="1:24" x14ac:dyDescent="0.3">
@@ -5267,7 +5343,7 @@
       <c r="C142" t="s">
         <v>4</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="39">
         <f>B142/(B142+B143)</f>
         <v>0.60553633217993075</v>
       </c>
@@ -5281,7 +5357,7 @@
       <c r="C143" t="s">
         <v>1</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="39">
         <f>1-D142</f>
         <v>0.39446366782006925</v>
       </c>
@@ -5289,6 +5365,7 @@
     </row>
     <row r="144" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
+      <c r="D144" s="39"/>
       <c r="X144" s="7"/>
     </row>
     <row r="145" spans="1:24" x14ac:dyDescent="0.3">
@@ -5301,7 +5378,7 @@
       <c r="C145" t="s">
         <v>4</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="39">
         <f>B145/(B145+B146)</f>
         <v>0.63461538461538458</v>
       </c>
@@ -5315,7 +5392,7 @@
       <c r="C146" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D146" s="11">
+      <c r="D146" s="40">
         <f>1-D145</f>
         <v>0.36538461538461542</v>
       </c>
@@ -7032,7 +7109,7 @@
       <c r="C204" t="s">
         <v>4</v>
       </c>
-      <c r="D204">
+      <c r="D204" s="39">
         <f>B204/(B204+B205)</f>
         <v>0.63083538083538082</v>
       </c>
@@ -7090,7 +7167,7 @@
       <c r="C205" t="s">
         <v>1</v>
       </c>
-      <c r="D205">
+      <c r="D205" s="39">
         <f>1-D204</f>
         <v>0.36916461916461918</v>
       </c>
@@ -7142,6 +7219,7 @@
     </row>
     <row r="206" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A206" s="19"/>
+      <c r="D206" s="39"/>
       <c r="I206" s="6">
         <v>44540</v>
       </c>
@@ -7198,7 +7276,7 @@
       <c r="C207" t="s">
         <v>4</v>
       </c>
-      <c r="D207">
+      <c r="D207" s="39">
         <f>B207/(B207+B208)</f>
         <v>0.62622549019607843</v>
       </c>
@@ -7250,7 +7328,7 @@
       <c r="C208" t="s">
         <v>1</v>
       </c>
-      <c r="D208">
+      <c r="D208" s="39">
         <f>1-D207</f>
         <v>0.37377450980392157</v>
       </c>
@@ -7258,6 +7336,7 @@
     </row>
     <row r="209" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A209" s="19"/>
+      <c r="D209" s="39"/>
       <c r="Y209" s="20"/>
     </row>
     <row r="210" spans="1:25" x14ac:dyDescent="0.3">
@@ -7270,7 +7349,7 @@
       <c r="C210" t="s">
         <v>4</v>
       </c>
-      <c r="D210">
+      <c r="D210" s="39">
         <f>B210/(B210+B211)</f>
         <v>0.71896053897978829</v>
       </c>
@@ -7284,7 +7363,7 @@
       <c r="C211" t="s">
         <v>1</v>
       </c>
-      <c r="D211">
+      <c r="D211" s="39">
         <f>1-D210</f>
         <v>0.28103946102021171</v>
       </c>
@@ -7292,6 +7371,7 @@
     </row>
     <row r="212" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A212" s="19"/>
+      <c r="D212" s="39"/>
       <c r="Y212" s="20"/>
     </row>
     <row r="213" spans="1:25" x14ac:dyDescent="0.3">
@@ -7304,7 +7384,7 @@
       <c r="C213" t="s">
         <v>4</v>
       </c>
-      <c r="D213">
+      <c r="D213" s="39">
         <f>B213/(B213+B214)</f>
         <v>0.66995614035087714</v>
       </c>
@@ -7318,7 +7398,7 @@
       <c r="C214" t="s">
         <v>1</v>
       </c>
-      <c r="D214">
+      <c r="D214" s="39">
         <f>1-D213</f>
         <v>0.33004385964912286</v>
       </c>
@@ -7326,6 +7406,7 @@
     </row>
     <row r="215" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A215" s="19"/>
+      <c r="D215" s="39"/>
       <c r="Y215" s="20"/>
     </row>
     <row r="216" spans="1:25" x14ac:dyDescent="0.3">
@@ -7338,7 +7419,7 @@
       <c r="C216" t="s">
         <v>4</v>
       </c>
-      <c r="D216">
+      <c r="D216" s="39">
         <f>B216/(B216+B217)</f>
         <v>0.58904109589041098</v>
       </c>
@@ -7352,7 +7433,7 @@
       <c r="C217" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D217" s="24">
+      <c r="D217" s="42">
         <f>1-D216</f>
         <v>0.41095890410958902</v>
       </c>
